--- a/uploads/TALLER_MOVILES.xlsx
+++ b/uploads/TALLER_MOVILES.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +659,44 @@
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46007.44570207176</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COMISARIA 9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>REPARACIÓN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BXCV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TALLER POLICIAL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>INGRESADO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
